--- a/Code/Results/Cases/Case_0_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.831819459960249</v>
+        <v>1.069404619044562</v>
       </c>
       <c r="D2">
-        <v>0.8516456605550031</v>
+        <v>1.074188088067269</v>
       </c>
       <c r="E2">
-        <v>0.8547061107186387</v>
+        <v>1.063392055330241</v>
       </c>
       <c r="F2">
-        <v>0.8485927568445595</v>
+        <v>1.082450564687021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.860531095367662</v>
+        <v>1.074339515050223</v>
       </c>
       <c r="K2">
-        <v>0.8656483817560754</v>
+        <v>1.076877962343129</v>
       </c>
       <c r="L2">
-        <v>0.868644567868481</v>
+        <v>1.066110819384368</v>
       </c>
       <c r="M2">
-        <v>0.8626601955189116</v>
+        <v>1.085118749329558</v>
       </c>
       <c r="N2">
-        <v>0.8617531482273805</v>
+        <v>1.075865200390059</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.8760441851656665</v>
+        <v>1.073499821534699</v>
       </c>
       <c r="D3">
-        <v>0.8930210100524746</v>
+        <v>1.078068119455432</v>
       </c>
       <c r="E3">
-        <v>0.8934916829306371</v>
+        <v>1.067014910477174</v>
       </c>
       <c r="F3">
-        <v>0.8919998647352153</v>
+        <v>1.086553944373796</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>0.9005972233889081</v>
+        <v>1.078077137737485</v>
       </c>
       <c r="K3">
-        <v>0.9052342171300939</v>
+        <v>1.08056757023439</v>
       </c>
       <c r="L3">
-        <v>0.9056968672681153</v>
+        <v>1.069541647556044</v>
       </c>
       <c r="M3">
-        <v>0.9042305151086014</v>
+        <v>1.089032851632673</v>
       </c>
       <c r="N3">
-        <v>0.9018761747460659</v>
+        <v>1.079608130930248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.8992319665074332</v>
+        <v>1.076122029012802</v>
       </c>
       <c r="D4">
-        <v>0.9147582038052913</v>
+        <v>1.080551921490242</v>
       </c>
       <c r="E4">
-        <v>0.9138828832519916</v>
+        <v>1.069333299430817</v>
       </c>
       <c r="F4">
-        <v>0.9148059297635602</v>
+        <v>1.089181731879248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9216188663476566</v>
+        <v>1.080468739226115</v>
       </c>
       <c r="K4">
-        <v>0.9260073236552516</v>
+        <v>1.082928205225854</v>
       </c>
       <c r="L4">
-        <v>0.9251452367383181</v>
+        <v>1.07173579085114</v>
       </c>
       <c r="M4">
-        <v>0.9260543289903047</v>
+        <v>1.091538249183228</v>
       </c>
       <c r="N4">
-        <v>0.9229276708490316</v>
+        <v>1.082003128767313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9081238558128488</v>
+        <v>1.077218013818548</v>
       </c>
       <c r="D5">
-        <v>0.9231002529776965</v>
+        <v>1.081589905841726</v>
       </c>
       <c r="E5">
-        <v>0.9217100954962517</v>
+        <v>1.070301969291543</v>
       </c>
       <c r="F5">
-        <v>0.9235592937900671</v>
+        <v>1.090280129657587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628352</v>
       </c>
       <c r="J5">
-        <v>0.9296806879204802</v>
+        <v>1.081467945314063</v>
       </c>
       <c r="K5">
-        <v>0.933974193291696</v>
+        <v>1.08391441517548</v>
       </c>
       <c r="L5">
-        <v>0.9326040597018164</v>
+        <v>1.072652223395528</v>
       </c>
       <c r="M5">
-        <v>0.9344266388244119</v>
+        <v>1.092585207443028</v>
       </c>
       <c r="N5">
-        <v>0.9310009411331926</v>
+        <v>1.083003753842517</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9095745140206715</v>
+        <v>1.07740166629157</v>
       </c>
       <c r="D6">
-        <v>0.9244615121619233</v>
+        <v>1.081763830294934</v>
       </c>
       <c r="E6">
-        <v>0.9229874109130268</v>
+        <v>1.070464268354769</v>
       </c>
       <c r="F6">
-        <v>0.9249877510259258</v>
+        <v>1.090464191158561</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045370270238388</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.93099590824069</v>
+        <v>1.081635357590053</v>
       </c>
       <c r="K6">
-        <v>0.9352739356663198</v>
+        <v>1.084079646577309</v>
       </c>
       <c r="L6">
-        <v>0.933820897391986</v>
+        <v>1.072805751137322</v>
       </c>
       <c r="M6">
-        <v>0.935792675838958</v>
+        <v>1.092760632593141</v>
       </c>
       <c r="N6">
-        <v>0.9323180292171149</v>
+        <v>1.083171403863141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.8993537660476669</v>
+        <v>1.076136698426811</v>
       </c>
       <c r="D7">
-        <v>0.914872449355058</v>
+        <v>1.080565815187579</v>
       </c>
       <c r="E7">
-        <v>0.9139900727336602</v>
+        <v>1.069346266077438</v>
       </c>
       <c r="F7">
-        <v>0.9149258031304801</v>
+        <v>1.089196433274352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>0.9217292959372261</v>
+        <v>1.080482114839761</v>
       </c>
       <c r="K7">
-        <v>0.9261164515651463</v>
+        <v>1.082941407100334</v>
       </c>
       <c r="L7">
-        <v>0.9252474065435706</v>
+        <v>1.071748059526137</v>
       </c>
       <c r="M7">
-        <v>0.9261690002821547</v>
+        <v>1.091552263198383</v>
       </c>
       <c r="N7">
-        <v>0.9230382572612847</v>
+        <v>1.082016523375864</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8482871048164117</v>
+        <v>1.070794481193902</v>
       </c>
       <c r="D8">
-        <v>0.8670379674397858</v>
+        <v>1.075505053895057</v>
       </c>
       <c r="E8">
-        <v>0.8691297170080673</v>
+        <v>1.064621892479434</v>
       </c>
       <c r="F8">
-        <v>0.8647413626007083</v>
+        <v>1.083843129312902</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.8754439304689873</v>
+        <v>1.075608361290324</v>
       </c>
       <c r="K8">
-        <v>0.8803811512888878</v>
+        <v>1.078130559164072</v>
       </c>
       <c r="L8">
-        <v>0.8824321515570411</v>
+        <v>1.067275754349051</v>
       </c>
       <c r="M8">
-        <v>0.8781295846367878</v>
+        <v>1.0864473247542</v>
       </c>
       <c r="N8">
-        <v>0.8766871612650756</v>
+        <v>1.077135848537359</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8482871048164117</v>
+        <v>1.061158198065165</v>
       </c>
       <c r="D9">
-        <v>0.8670379674397858</v>
+        <v>1.066371616934378</v>
       </c>
       <c r="E9">
-        <v>0.8691297170080673</v>
+        <v>1.056089480605245</v>
       </c>
       <c r="F9">
-        <v>0.8647413626007083</v>
+        <v>1.074189616686947</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045260356825638</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.8754439304689873</v>
+        <v>1.066804264487165</v>
       </c>
       <c r="K9">
-        <v>0.8803811512888878</v>
+        <v>1.069438200897041</v>
       </c>
       <c r="L9">
-        <v>0.8824321515570411</v>
+        <v>1.059187887108219</v>
       </c>
       <c r="M9">
-        <v>0.8781295846367878</v>
+        <v>1.077232449014184</v>
       </c>
       <c r="N9">
-        <v>0.8766871612650756</v>
+        <v>1.068319248906896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8482871048164117</v>
+        <v>1.054568734874687</v>
       </c>
       <c r="D10">
-        <v>0.8670379674397858</v>
+        <v>1.060122839671844</v>
       </c>
       <c r="E10">
-        <v>0.8691297170080673</v>
+        <v>1.050247859037541</v>
       </c>
       <c r="F10">
-        <v>0.8647413626007083</v>
+        <v>1.06759035650928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045260356825638</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.8754439304689873</v>
+        <v>1.060775224264197</v>
       </c>
       <c r="K10">
-        <v>0.8803811512888878</v>
+        <v>1.063484407765973</v>
       </c>
       <c r="L10">
-        <v>0.8824321515570411</v>
+        <v>1.053643312307951</v>
       </c>
       <c r="M10">
-        <v>0.8781295846367878</v>
+        <v>1.070926757649117</v>
       </c>
       <c r="N10">
-        <v>0.8766871612650756</v>
+        <v>1.062281646755271</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8482871048164117</v>
+        <v>1.051672573472101</v>
       </c>
       <c r="D11">
-        <v>0.8670379674397858</v>
+        <v>1.057375686463261</v>
       </c>
       <c r="E11">
-        <v>0.8691297170080673</v>
+        <v>1.047678757758961</v>
       </c>
       <c r="F11">
-        <v>0.8647413626007083</v>
+        <v>1.064690386353461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045260356825638</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.8754439304689873</v>
+        <v>1.058123332759834</v>
       </c>
       <c r="K11">
-        <v>0.8803811512888878</v>
+        <v>1.060865314548612</v>
       </c>
       <c r="L11">
-        <v>0.8824321515570411</v>
+        <v>1.051203099397989</v>
       </c>
       <c r="M11">
-        <v>0.8781295846367878</v>
+        <v>1.068154289907685</v>
       </c>
       <c r="N11">
-        <v>0.8766871612650756</v>
+        <v>1.059625989260796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8482871048164117</v>
+        <v>1.050590041262799</v>
       </c>
       <c r="D12">
-        <v>0.8670379674397858</v>
+        <v>1.05634874355818</v>
       </c>
       <c r="E12">
-        <v>0.8691297170080673</v>
+        <v>1.046718233444627</v>
       </c>
       <c r="F12">
-        <v>0.8647413626007083</v>
+        <v>1.063606507476276</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045260356825638</v>
+        <v>1.023938164268118</v>
       </c>
       <c r="J12">
-        <v>0.8754439304689873</v>
+        <v>1.057131797778757</v>
       </c>
       <c r="K12">
-        <v>0.8803811512888878</v>
+        <v>1.059885997993526</v>
       </c>
       <c r="L12">
-        <v>0.8824321515570411</v>
+        <v>1.050290498862824</v>
       </c>
       <c r="M12">
-        <v>0.8781295846367878</v>
+        <v>1.067117839014087</v>
       </c>
       <c r="N12">
-        <v>0.8766871612650756</v>
+        <v>1.058633046186314</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8482871048164117</v>
+        <v>1.050822559818213</v>
       </c>
       <c r="D13">
-        <v>0.8670379674397858</v>
+        <v>1.056569326824628</v>
       </c>
       <c r="E13">
-        <v>0.8691297170080673</v>
+        <v>1.04692455661153</v>
       </c>
       <c r="F13">
-        <v>0.8647413626007083</v>
+        <v>1.063839311766791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045260356825638</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.8754439304689873</v>
+        <v>1.057344784757571</v>
       </c>
       <c r="K13">
-        <v>0.8803811512888878</v>
+        <v>1.060096362409735</v>
       </c>
       <c r="L13">
-        <v>0.8824321515570411</v>
+        <v>1.050486539853506</v>
       </c>
       <c r="M13">
-        <v>0.8781295846367878</v>
+        <v>1.067340466601683</v>
       </c>
       <c r="N13">
-        <v>0.8766871612650756</v>
+        <v>1.058846335631069</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8482871048164117</v>
+        <v>1.051583231047803</v>
       </c>
       <c r="D14">
-        <v>0.8670379674397858</v>
+        <v>1.057290934048184</v>
       </c>
       <c r="E14">
-        <v>0.8691297170080673</v>
+        <v>1.047599489655192</v>
       </c>
       <c r="F14">
-        <v>0.8647413626007083</v>
+        <v>1.064600931206835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045260356825638</v>
+        <v>1.023922712353274</v>
       </c>
       <c r="J14">
-        <v>0.8754439304689873</v>
+        <v>1.058041506658047</v>
       </c>
       <c r="K14">
-        <v>0.8803811512888878</v>
+        <v>1.060784497678434</v>
       </c>
       <c r="L14">
-        <v>0.8824321515570411</v>
+        <v>1.051127791637372</v>
       </c>
       <c r="M14">
-        <v>0.8781295846367878</v>
+        <v>1.068068753727956</v>
       </c>
       <c r="N14">
-        <v>0.8766871612650756</v>
+        <v>1.059544046956559</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8482871048164117</v>
+        <v>1.052050998725618</v>
       </c>
       <c r="D15">
-        <v>0.8670379674397858</v>
+        <v>1.057734665573342</v>
       </c>
       <c r="E15">
-        <v>0.8691297170080673</v>
+        <v>1.048014501656274</v>
       </c>
       <c r="F15">
-        <v>0.8647413626007083</v>
+        <v>1.065069292219917</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045260356825638</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.8754439304689873</v>
+        <v>1.058469908820808</v>
       </c>
       <c r="K15">
-        <v>0.8803811512888878</v>
+        <v>1.061207614162277</v>
       </c>
       <c r="L15">
-        <v>0.8824321515570411</v>
+        <v>1.051522058260361</v>
       </c>
       <c r="M15">
-        <v>0.8781295846367878</v>
+        <v>1.068516586909232</v>
       </c>
       <c r="N15">
-        <v>0.8766871612650756</v>
+        <v>1.059973057499529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8482871048164117</v>
+        <v>1.054760012593408</v>
       </c>
       <c r="D16">
-        <v>0.8670379674397858</v>
+        <v>1.060304261038092</v>
       </c>
       <c r="E16">
-        <v>0.8691297170080673</v>
+        <v>1.050417502184322</v>
       </c>
       <c r="F16">
-        <v>0.8647413626007083</v>
+        <v>1.067781896382619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045260356825638</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.8754439304689873</v>
+        <v>1.060950326364018</v>
       </c>
       <c r="K16">
-        <v>0.8803811512888878</v>
+        <v>1.063657337972955</v>
       </c>
       <c r="L16">
-        <v>0.8824321515570411</v>
+        <v>1.053804407909193</v>
       </c>
       <c r="M16">
-        <v>0.8781295846367878</v>
+        <v>1.071109844569052</v>
       </c>
       <c r="N16">
-        <v>0.8766871612650756</v>
+        <v>1.062456997520158</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8482871048164117</v>
+        <v>1.056447599266004</v>
       </c>
       <c r="D17">
-        <v>0.8670379674397858</v>
+        <v>1.061904804836995</v>
       </c>
       <c r="E17">
-        <v>0.8691297170080673</v>
+        <v>1.05191402735505</v>
       </c>
       <c r="F17">
-        <v>0.8647413626007083</v>
+        <v>1.069471853225664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045260356825638</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.8754439304689873</v>
+        <v>1.062494966149793</v>
       </c>
       <c r="K17">
-        <v>0.8803811512888878</v>
+        <v>1.065182784420732</v>
       </c>
       <c r="L17">
-        <v>0.8824321515570411</v>
+        <v>1.055225329233721</v>
       </c>
       <c r="M17">
-        <v>0.8781295846367878</v>
+        <v>1.072725048573066</v>
       </c>
       <c r="N17">
-        <v>0.8766871612650756</v>
+        <v>1.064003830871601</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8482871048164117</v>
+        <v>1.057427825519448</v>
       </c>
       <c r="D18">
-        <v>0.8670379674397858</v>
+        <v>1.062834402903192</v>
       </c>
       <c r="E18">
-        <v>0.8691297170080673</v>
+        <v>1.052783120706715</v>
       </c>
       <c r="F18">
-        <v>0.8647413626007083</v>
+        <v>1.070453503568837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045260356825638</v>
+        <v>1.023826118601775</v>
       </c>
       <c r="J18">
-        <v>0.8754439304689873</v>
+        <v>1.063391966919021</v>
       </c>
       <c r="K18">
-        <v>0.8803811512888878</v>
+        <v>1.066068610634147</v>
       </c>
       <c r="L18">
-        <v>0.8824321515570411</v>
+        <v>1.056050349092327</v>
       </c>
       <c r="M18">
-        <v>0.8781295846367878</v>
+        <v>1.073663133312909</v>
       </c>
       <c r="N18">
-        <v>0.8766871612650756</v>
+        <v>1.06490210548481</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8482871048164117</v>
+        <v>1.057761369119432</v>
       </c>
       <c r="D19">
-        <v>0.8670379674397858</v>
+        <v>1.063150707248725</v>
       </c>
       <c r="E19">
-        <v>0.8691297170080673</v>
+        <v>1.053078822368291</v>
       </c>
       <c r="F19">
-        <v>0.8647413626007083</v>
+        <v>1.070787539717097</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045260356825638</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.8754439304689873</v>
+        <v>1.063697158033275</v>
       </c>
       <c r="K19">
-        <v>0.8803811512888878</v>
+        <v>1.066369994910178</v>
       </c>
       <c r="L19">
-        <v>0.8824321515570411</v>
+        <v>1.056331026795331</v>
       </c>
       <c r="M19">
-        <v>0.8781295846367878</v>
+        <v>1.073982320603665</v>
       </c>
       <c r="N19">
-        <v>0.8766871612650756</v>
+        <v>1.065207730005452</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8482871048164117</v>
+        <v>1.056266965082059</v>
       </c>
       <c r="D20">
-        <v>0.8670379674397858</v>
+        <v>1.061733494672924</v>
       </c>
       <c r="E20">
-        <v>0.8691297170080673</v>
+        <v>1.051753859935156</v>
       </c>
       <c r="F20">
-        <v>0.8647413626007083</v>
+        <v>1.069290960420147</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045260356825638</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.8754439304689873</v>
+        <v>1.062329652819215</v>
       </c>
       <c r="K20">
-        <v>0.8803811512888878</v>
+        <v>1.065019528200518</v>
       </c>
       <c r="L20">
-        <v>0.8824321515570411</v>
+        <v>1.055073270745959</v>
       </c>
       <c r="M20">
-        <v>0.8781295846367878</v>
+        <v>1.072552172197078</v>
       </c>
       <c r="N20">
-        <v>0.8766871612650756</v>
+        <v>1.063838282777132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8482871048164117</v>
+        <v>1.051359421885193</v>
       </c>
       <c r="D21">
-        <v>0.8670379674397858</v>
+        <v>1.057078621464798</v>
       </c>
       <c r="E21">
-        <v>0.8691297170080673</v>
+        <v>1.047400913506779</v>
       </c>
       <c r="F21">
-        <v>0.8647413626007083</v>
+        <v>1.064376840916162</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045260356825638</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.8754439304689873</v>
+        <v>1.057836521481388</v>
       </c>
       <c r="K21">
-        <v>0.8803811512888878</v>
+        <v>1.060582040038856</v>
       </c>
       <c r="L21">
-        <v>0.8824321515570411</v>
+        <v>1.050939132355752</v>
       </c>
       <c r="M21">
-        <v>0.8781295846367878</v>
+        <v>1.067854477015281</v>
       </c>
       <c r="N21">
-        <v>0.8766871612650756</v>
+        <v>1.059338770677436</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8482871048164117</v>
+        <v>1.048234518871111</v>
       </c>
       <c r="D22">
-        <v>0.8670379674397858</v>
+        <v>1.054113985804673</v>
       </c>
       <c r="E22">
-        <v>0.8691297170080673</v>
+        <v>1.044627753924189</v>
       </c>
       <c r="F22">
-        <v>0.8647413626007083</v>
+        <v>1.061248198549688</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045260356825638</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.8754439304689873</v>
+        <v>1.054973718583547</v>
       </c>
       <c r="K22">
-        <v>0.8803811512888878</v>
+        <v>1.057754430387521</v>
       </c>
       <c r="L22">
-        <v>0.8824321515570411</v>
+        <v>1.048303833781941</v>
       </c>
       <c r="M22">
-        <v>0.8781295846367878</v>
+        <v>1.064862307429474</v>
       </c>
       <c r="N22">
-        <v>0.8766871612650756</v>
+        <v>1.056471902271112</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8482871048164117</v>
+        <v>1.049894930753249</v>
       </c>
       <c r="D23">
-        <v>0.8670379674397858</v>
+        <v>1.055689297867532</v>
       </c>
       <c r="E23">
-        <v>0.8691297170080673</v>
+        <v>1.046101398555662</v>
       </c>
       <c r="F23">
-        <v>0.8647413626007083</v>
+        <v>1.062910554219863</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045260356825638</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.8754439304689873</v>
+        <v>1.056495031783047</v>
       </c>
       <c r="K23">
-        <v>0.8803811512888878</v>
+        <v>1.059257066119123</v>
       </c>
       <c r="L23">
-        <v>0.8824321515570411</v>
+        <v>1.049704365278724</v>
       </c>
       <c r="M23">
-        <v>0.8781295846367878</v>
+        <v>1.0664522750748</v>
       </c>
       <c r="N23">
-        <v>0.8766871612650756</v>
+        <v>1.057995375909853</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8482871048164117</v>
+        <v>1.056348598586832</v>
       </c>
       <c r="D24">
-        <v>0.8670379674397858</v>
+        <v>1.061810914615462</v>
       </c>
       <c r="E24">
-        <v>0.8691297170080673</v>
+        <v>1.051826244434646</v>
       </c>
       <c r="F24">
-        <v>0.8647413626007083</v>
+        <v>1.069372710656522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045260356825638</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.8754439304689873</v>
+        <v>1.062404363018574</v>
       </c>
       <c r="K24">
-        <v>0.8803811512888878</v>
+        <v>1.065093308816833</v>
       </c>
       <c r="L24">
-        <v>0.8824321515570411</v>
+        <v>1.055141991091542</v>
       </c>
       <c r="M24">
-        <v>0.8781295846367878</v>
+        <v>1.072630300041993</v>
       </c>
       <c r="N24">
-        <v>0.8766871612650756</v>
+        <v>1.063913099073544</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8482871048164117</v>
+        <v>1.063677354202725</v>
       </c>
       <c r="D25">
-        <v>0.8670379674397858</v>
+        <v>1.068759876566058</v>
       </c>
       <c r="E25">
-        <v>0.8691297170080673</v>
+        <v>1.058321289480979</v>
       </c>
       <c r="F25">
-        <v>0.8647413626007083</v>
+        <v>1.0767129398829</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045260356825638</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.8754439304689873</v>
+        <v>1.069107373762433</v>
       </c>
       <c r="K25">
-        <v>0.8803811512888878</v>
+        <v>1.071712301888705</v>
       </c>
       <c r="L25">
-        <v>0.8824321515570411</v>
+        <v>1.061304683107327</v>
       </c>
       <c r="M25">
-        <v>0.8781295846367878</v>
+        <v>1.079642208938693</v>
       </c>
       <c r="N25">
-        <v>0.8766871612650756</v>
+        <v>1.070625628861505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069404619044562</v>
+        <v>0.8318194599602485</v>
       </c>
       <c r="D2">
-        <v>1.074188088067269</v>
+        <v>0.8516456605550026</v>
       </c>
       <c r="E2">
-        <v>1.063392055330241</v>
+        <v>0.8547061107186381</v>
       </c>
       <c r="F2">
-        <v>1.082450564687021</v>
+        <v>0.8485927568445589</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.074339515050223</v>
+        <v>0.8605310953676617</v>
       </c>
       <c r="K2">
-        <v>1.076877962343129</v>
+        <v>0.8656483817560748</v>
       </c>
       <c r="L2">
-        <v>1.066110819384368</v>
+        <v>0.8686445678684805</v>
       </c>
       <c r="M2">
-        <v>1.085118749329558</v>
+        <v>0.8626601955189109</v>
       </c>
       <c r="N2">
-        <v>1.075865200390059</v>
+        <v>0.86175314822738</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073499821534699</v>
+        <v>0.8760441851656671</v>
       </c>
       <c r="D3">
-        <v>1.078068119455432</v>
+        <v>0.8930210100524749</v>
       </c>
       <c r="E3">
-        <v>1.067014910477174</v>
+        <v>0.8934916829306373</v>
       </c>
       <c r="F3">
-        <v>1.086553944373796</v>
+        <v>0.8919998647352158</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.078077137737485</v>
+        <v>0.9005972233889088</v>
       </c>
       <c r="K3">
-        <v>1.08056757023439</v>
+        <v>0.9052342171300941</v>
       </c>
       <c r="L3">
-        <v>1.069541647556044</v>
+        <v>0.9056968672681155</v>
       </c>
       <c r="M3">
-        <v>1.089032851632673</v>
+        <v>0.9042305151086015</v>
       </c>
       <c r="N3">
-        <v>1.079608130930248</v>
+        <v>0.9018761747460663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076122029012802</v>
+        <v>0.8992319665074313</v>
       </c>
       <c r="D4">
-        <v>1.080551921490242</v>
+        <v>0.9147582038052892</v>
       </c>
       <c r="E4">
-        <v>1.069333299430817</v>
+        <v>0.9138828832519899</v>
       </c>
       <c r="F4">
-        <v>1.089181731879248</v>
+        <v>0.9148059297635582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.080468739226115</v>
+        <v>0.9216188663476544</v>
       </c>
       <c r="K4">
-        <v>1.082928205225854</v>
+        <v>0.9260073236552495</v>
       </c>
       <c r="L4">
-        <v>1.07173579085114</v>
+        <v>0.9251452367383164</v>
       </c>
       <c r="M4">
-        <v>1.091538249183228</v>
+        <v>0.9260543289903027</v>
       </c>
       <c r="N4">
-        <v>1.082003128767313</v>
+        <v>0.9229276708490296</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077218013818548</v>
+        <v>0.9081238558128562</v>
       </c>
       <c r="D5">
-        <v>1.081589905841726</v>
+        <v>0.9231002529777032</v>
       </c>
       <c r="E5">
-        <v>1.070301969291543</v>
+        <v>0.921710095496258</v>
       </c>
       <c r="F5">
-        <v>1.090280129657587</v>
+        <v>0.9235592937900743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628352</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.081467945314063</v>
+        <v>0.9296806879204874</v>
       </c>
       <c r="K5">
-        <v>1.08391441517548</v>
+        <v>0.9339741932917027</v>
       </c>
       <c r="L5">
-        <v>1.072652223395528</v>
+        <v>0.9326040597018227</v>
       </c>
       <c r="M5">
-        <v>1.092585207443028</v>
+        <v>0.934426638824419</v>
       </c>
       <c r="N5">
-        <v>1.083003753842517</v>
+        <v>0.9310009411331998</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.07740166629157</v>
+        <v>0.9095745140206721</v>
       </c>
       <c r="D6">
-        <v>1.081763830294934</v>
+        <v>0.924461512161924</v>
       </c>
       <c r="E6">
-        <v>1.070464268354769</v>
+        <v>0.9229874109130274</v>
       </c>
       <c r="F6">
-        <v>1.090464191158561</v>
+        <v>0.9249877510259266</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.045370270238388</v>
       </c>
       <c r="J6">
-        <v>1.081635357590053</v>
+        <v>0.9309959082406907</v>
       </c>
       <c r="K6">
-        <v>1.084079646577309</v>
+        <v>0.9352739356663203</v>
       </c>
       <c r="L6">
-        <v>1.072805751137322</v>
+        <v>0.933820897391987</v>
       </c>
       <c r="M6">
-        <v>1.092760632593141</v>
+        <v>0.9357926758389585</v>
       </c>
       <c r="N6">
-        <v>1.083171403863141</v>
+        <v>0.932318029217116</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076136698426811</v>
+        <v>0.8993537660476574</v>
       </c>
       <c r="D7">
-        <v>1.080565815187579</v>
+        <v>0.914872449355049</v>
       </c>
       <c r="E7">
-        <v>1.069346266077438</v>
+        <v>0.913990072733652</v>
       </c>
       <c r="F7">
-        <v>1.089196433274352</v>
+        <v>0.9149258031304707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.080482114839761</v>
+        <v>0.9217292959372171</v>
       </c>
       <c r="K7">
-        <v>1.082941407100334</v>
+        <v>0.9261164515651376</v>
       </c>
       <c r="L7">
-        <v>1.071748059526137</v>
+        <v>0.9252474065435626</v>
       </c>
       <c r="M7">
-        <v>1.091552263198383</v>
+        <v>0.9261690002821457</v>
       </c>
       <c r="N7">
-        <v>1.082016523375864</v>
+        <v>0.9230382572612759</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070794481193902</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D8">
-        <v>1.075505053895057</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E8">
-        <v>1.064621892479434</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F8">
-        <v>1.083843129312902</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.075608361290324</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K8">
-        <v>1.078130559164072</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L8">
-        <v>1.067275754349051</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M8">
-        <v>1.0864473247542</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N8">
-        <v>1.077135848537359</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.061158198065165</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D9">
-        <v>1.066371616934378</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E9">
-        <v>1.056089480605245</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F9">
-        <v>1.074189616686947</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J9">
-        <v>1.066804264487165</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K9">
-        <v>1.069438200897041</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L9">
-        <v>1.059187887108219</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M9">
-        <v>1.077232449014184</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N9">
-        <v>1.068319248906896</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.054568734874687</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D10">
-        <v>1.060122839671844</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E10">
-        <v>1.050247859037541</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F10">
-        <v>1.06759035650928</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J10">
-        <v>1.060775224264197</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K10">
-        <v>1.063484407765973</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L10">
-        <v>1.053643312307951</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M10">
-        <v>1.070926757649117</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N10">
-        <v>1.062281646755271</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051672573472101</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D11">
-        <v>1.057375686463261</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E11">
-        <v>1.047678757758961</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F11">
-        <v>1.064690386353461</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J11">
-        <v>1.058123332759834</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K11">
-        <v>1.060865314548612</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L11">
-        <v>1.051203099397989</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M11">
-        <v>1.068154289907685</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N11">
-        <v>1.059625989260796</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050590041262799</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D12">
-        <v>1.05634874355818</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E12">
-        <v>1.046718233444627</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F12">
-        <v>1.063606507476276</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268118</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J12">
-        <v>1.057131797778757</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K12">
-        <v>1.059885997993526</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L12">
-        <v>1.050290498862824</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M12">
-        <v>1.067117839014087</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N12">
-        <v>1.058633046186314</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050822559818213</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D13">
-        <v>1.056569326824628</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E13">
-        <v>1.04692455661153</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F13">
-        <v>1.063839311766791</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J13">
-        <v>1.057344784757571</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K13">
-        <v>1.060096362409735</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L13">
-        <v>1.050486539853506</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M13">
-        <v>1.067340466601683</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N13">
-        <v>1.058846335631069</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051583231047803</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D14">
-        <v>1.057290934048184</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E14">
-        <v>1.047599489655192</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F14">
-        <v>1.064600931206835</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353274</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J14">
-        <v>1.058041506658047</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K14">
-        <v>1.060784497678434</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L14">
-        <v>1.051127791637372</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M14">
-        <v>1.068068753727956</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N14">
-        <v>1.059544046956559</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052050998725618</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D15">
-        <v>1.057734665573342</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E15">
-        <v>1.048014501656274</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F15">
-        <v>1.065069292219917</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J15">
-        <v>1.058469908820808</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K15">
-        <v>1.061207614162277</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L15">
-        <v>1.051522058260361</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M15">
-        <v>1.068516586909232</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N15">
-        <v>1.059973057499529</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.054760012593408</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D16">
-        <v>1.060304261038092</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E16">
-        <v>1.050417502184322</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F16">
-        <v>1.067781896382619</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J16">
-        <v>1.060950326364018</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K16">
-        <v>1.063657337972955</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L16">
-        <v>1.053804407909193</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M16">
-        <v>1.071109844569052</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N16">
-        <v>1.062456997520158</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056447599266004</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D17">
-        <v>1.061904804836995</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E17">
-        <v>1.05191402735505</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F17">
-        <v>1.069471853225664</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J17">
-        <v>1.062494966149793</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K17">
-        <v>1.065182784420732</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L17">
-        <v>1.055225329233721</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M17">
-        <v>1.072725048573066</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N17">
-        <v>1.064003830871601</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.057427825519448</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D18">
-        <v>1.062834402903192</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E18">
-        <v>1.052783120706715</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F18">
-        <v>1.070453503568837</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601775</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J18">
-        <v>1.063391966919021</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K18">
-        <v>1.066068610634147</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L18">
-        <v>1.056050349092327</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M18">
-        <v>1.073663133312909</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N18">
-        <v>1.06490210548481</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.057761369119432</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D19">
-        <v>1.063150707248725</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E19">
-        <v>1.053078822368291</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F19">
-        <v>1.070787539717097</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J19">
-        <v>1.063697158033275</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K19">
-        <v>1.066369994910178</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L19">
-        <v>1.056331026795331</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M19">
-        <v>1.073982320603665</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N19">
-        <v>1.065207730005452</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056266965082059</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D20">
-        <v>1.061733494672924</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E20">
-        <v>1.051753859935156</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F20">
-        <v>1.069290960420147</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J20">
-        <v>1.062329652819215</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K20">
-        <v>1.065019528200518</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L20">
-        <v>1.055073270745959</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M20">
-        <v>1.072552172197078</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N20">
-        <v>1.063838282777132</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051359421885193</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D21">
-        <v>1.057078621464798</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E21">
-        <v>1.047400913506779</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F21">
-        <v>1.064376840916162</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J21">
-        <v>1.057836521481388</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K21">
-        <v>1.060582040038856</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L21">
-        <v>1.050939132355752</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M21">
-        <v>1.067854477015281</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N21">
-        <v>1.059338770677436</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048234518871111</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D22">
-        <v>1.054113985804673</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E22">
-        <v>1.044627753924189</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F22">
-        <v>1.061248198549688</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J22">
-        <v>1.054973718583547</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K22">
-        <v>1.057754430387521</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L22">
-        <v>1.048303833781941</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M22">
-        <v>1.064862307429474</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N22">
-        <v>1.056471902271112</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049894930753249</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D23">
-        <v>1.055689297867532</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E23">
-        <v>1.046101398555662</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F23">
-        <v>1.062910554219863</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J23">
-        <v>1.056495031783047</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K23">
-        <v>1.059257066119123</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L23">
-        <v>1.049704365278724</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M23">
-        <v>1.0664522750748</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N23">
-        <v>1.057995375909853</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056348598586832</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D24">
-        <v>1.061810914615462</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E24">
-        <v>1.051826244434646</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F24">
-        <v>1.069372710656522</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J24">
-        <v>1.062404363018574</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K24">
-        <v>1.065093308816833</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L24">
-        <v>1.055141991091542</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M24">
-        <v>1.072630300041993</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N24">
-        <v>1.063913099073544</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063677354202725</v>
+        <v>0.8482871048164112</v>
       </c>
       <c r="D25">
-        <v>1.068759876566058</v>
+        <v>0.8670379674397852</v>
       </c>
       <c r="E25">
-        <v>1.058321289480979</v>
+        <v>0.8691297170080664</v>
       </c>
       <c r="F25">
-        <v>1.0767129398829</v>
+        <v>0.864741362600708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J25">
-        <v>1.069107373762433</v>
+        <v>0.8754439304689866</v>
       </c>
       <c r="K25">
-        <v>1.071712301888705</v>
+        <v>0.8803811512888873</v>
       </c>
       <c r="L25">
-        <v>1.061304683107327</v>
+        <v>0.8824321515570407</v>
       </c>
       <c r="M25">
-        <v>1.079642208938693</v>
+        <v>0.8781295846367876</v>
       </c>
       <c r="N25">
-        <v>1.070625628861505</v>
+        <v>0.876687161265075</v>
       </c>
     </row>
   </sheetData>
